--- a/models/필터링결과표.xlsx
+++ b/models/필터링결과표.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunq/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunq/Documents/GitHub/jongsulteam7/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EE7B9F-6A2B-724A-89D9-E5D6C75A3742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1138793-C4F5-8C45-A6B6-76EACAB8CA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8960" yWindow="760" windowWidth="18060" windowHeight="17440" xr2:uid="{1589555C-A9E2-A24B-BD75-555289847555}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="118">
   <si>
     <t>폴더명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,18 +393,6 @@
   </si>
   <si>
     <t>유해/비유해 예측</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비노출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노출, 폭력, 관게 &gt; 0.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -799,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F569E46-183B-5D47-827A-1040964C9E6E}">
-  <dimension ref="A1:J139"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -837,16 +825,16 @@
         <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2547,33 +2535,6 @@
       </c>
       <c r="E101" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5">
-      <c r="D137" t="s">
-        <v>114</v>
-      </c>
-      <c r="E137" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5">
-      <c r="D138">
-        <v>0.7</v>
-      </c>
-      <c r="E138">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5">
-      <c r="B139" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D139">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E139">
-        <v>0.45</v>
       </c>
     </row>
   </sheetData>

--- a/models/필터링결과표.xlsx
+++ b/models/필터링결과표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunq/Documents/GitHub/jongsulteam7/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1138793-C4F5-8C45-A6B6-76EACAB8CA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB5FC68-3316-4645-8D59-446CF3CFF566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="760" windowWidth="18060" windowHeight="17440" xr2:uid="{1589555C-A9E2-A24B-BD75-555289847555}"/>
+    <workbookView xWindow="3000" yWindow="760" windowWidth="18060" windowHeight="17440" xr2:uid="{1589555C-A9E2-A24B-BD75-555289847555}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="113">
   <si>
     <t>폴더명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,26 +389,6 @@
   </si>
   <si>
     <t>Violence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유해/비유해 예측</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노출 예측</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭력 예측</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관계 예측</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">blind 여부 (폴더 위치) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F569E46-183B-5D47-827A-1040964C9E6E}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H106" sqref="H106"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -798,14 +778,10 @@
     <col min="1" max="1" width="10.7109375" style="1"/>
     <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1"/>
-    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="18.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="2"/>
+    <col min="6" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,23 +797,8 @@
       <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -854,7 +815,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -871,7 +832,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -888,7 +849,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -905,7 +866,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,7 +883,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -939,7 +900,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -956,7 +917,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -973,7 +934,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,7 +951,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,7 +968,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1024,7 +985,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1041,7 +1002,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1058,7 +1019,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1075,7 +1036,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>

--- a/models/필터링결과표.xlsx
+++ b/models/필터링결과표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunq/Documents/GitHub/jongsulteam7/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunq/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB5FC68-3316-4645-8D59-446CF3CFF566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735B4F58-55C3-ED4E-82EF-3AA7A54C8402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="760" windowWidth="18060" windowHeight="17440" xr2:uid="{1589555C-A9E2-A24B-BD75-555289847555}"/>
+    <workbookView xWindow="12540" yWindow="760" windowWidth="18060" windowHeight="17440" xr2:uid="{1589555C-A9E2-A24B-BD75-555289847555}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,247 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>건전영상001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건전영상002</t>
-  </si>
-  <si>
-    <t>건전영상003</t>
-  </si>
-  <si>
-    <t>건전영상004</t>
-  </si>
-  <si>
-    <t>건전영상005</t>
-  </si>
-  <si>
-    <t>건전영상006</t>
-  </si>
-  <si>
-    <t>건전영상007</t>
-  </si>
-  <si>
-    <t>건전영상008</t>
-  </si>
-  <si>
-    <t>건전영상009</t>
-  </si>
-  <si>
-    <t>건전영상010</t>
-  </si>
-  <si>
-    <t>건전영상011</t>
-  </si>
-  <si>
-    <t>건전영상012</t>
-  </si>
-  <si>
-    <t>건전영상013</t>
-  </si>
-  <si>
-    <t>건전영상014</t>
-  </si>
-  <si>
-    <t>건전영상015</t>
-  </si>
-  <si>
-    <t>건전영상016</t>
-  </si>
-  <si>
-    <t>건전영상017</t>
-  </si>
-  <si>
-    <t>건전영상018</t>
-  </si>
-  <si>
-    <t>건전영상019</t>
-  </si>
-  <si>
-    <t>건전영상020</t>
-  </si>
-  <si>
-    <t>건전영상021</t>
-  </si>
-  <si>
-    <t>건전영상022</t>
-  </si>
-  <si>
-    <t>건전영상023</t>
-  </si>
-  <si>
-    <t>건전영상024</t>
-  </si>
-  <si>
-    <t>건전영상025</t>
-  </si>
-  <si>
-    <t>건전영상026</t>
-  </si>
-  <si>
-    <t>건전영상027</t>
-  </si>
-  <si>
-    <t>건전영상028</t>
-  </si>
-  <si>
-    <t>건전영상029</t>
-  </si>
-  <si>
-    <t>건전영상030</t>
-  </si>
-  <si>
-    <t>건전영상031</t>
-  </si>
-  <si>
-    <t>건전영상032</t>
-  </si>
-  <si>
-    <t>건전영상033</t>
-  </si>
-  <si>
-    <t>건전영상034</t>
-  </si>
-  <si>
-    <t>건전영상035</t>
-  </si>
-  <si>
-    <t>건전영상036</t>
-  </si>
-  <si>
-    <t>건전영상037</t>
-  </si>
-  <si>
-    <t>건전영상038</t>
-  </si>
-  <si>
-    <t>건전영상039</t>
-  </si>
-  <si>
-    <t>건전영상040</t>
-  </si>
-  <si>
-    <t>건전영상041</t>
-  </si>
-  <si>
-    <t>건전영상042</t>
-  </si>
-  <si>
-    <t>건전영상043</t>
-  </si>
-  <si>
-    <t>건전영상044</t>
-  </si>
-  <si>
-    <t>건전영상045</t>
-  </si>
-  <si>
-    <t>건전영상046</t>
-  </si>
-  <si>
-    <t>건전영상047</t>
-  </si>
-  <si>
-    <t>건전영상048</t>
-  </si>
-  <si>
-    <t>건전영상049</t>
-  </si>
-  <si>
-    <t>건전영상050</t>
-  </si>
-  <si>
-    <t>건전영상051</t>
-  </si>
-  <si>
-    <t>건전영상052</t>
-  </si>
-  <si>
-    <t>건전영상053</t>
-  </si>
-  <si>
-    <t>건전영상054</t>
-  </si>
-  <si>
-    <t>건전영상055</t>
-  </si>
-  <si>
-    <t>건전영상056</t>
-  </si>
-  <si>
-    <t>건전영상057</t>
-  </si>
-  <si>
-    <t>건전영상058</t>
-  </si>
-  <si>
-    <t>건전영상059</t>
-  </si>
-  <si>
-    <t>건전영상060</t>
-  </si>
-  <si>
-    <t>건전영상061</t>
-  </si>
-  <si>
-    <t>건전영상062</t>
-  </si>
-  <si>
-    <t>건전영상063</t>
-  </si>
-  <si>
-    <t>건전영상064</t>
-  </si>
-  <si>
-    <t>건전영상065</t>
-  </si>
-  <si>
-    <t>건전영상066</t>
-  </si>
-  <si>
-    <t>건전영상067</t>
-  </si>
-  <si>
-    <t>건전영상068</t>
-  </si>
-  <si>
-    <t>건전영상069</t>
-  </si>
-  <si>
-    <t>건전영상070</t>
-  </si>
-  <si>
-    <t>건전영상071</t>
-  </si>
-  <si>
-    <t>건전영상072</t>
-  </si>
-  <si>
-    <t>건전영상073</t>
-  </si>
-  <si>
-    <t>건전영상074</t>
-  </si>
-  <si>
-    <t>건전영상075</t>
-  </si>
-  <si>
-    <t>건전영상076</t>
-  </si>
-  <si>
-    <t>건전영상077</t>
-  </si>
-  <si>
-    <t>건전영상078</t>
-  </si>
-  <si>
-    <t>건전영상079</t>
-  </si>
-  <si>
-    <t>건전영상080</t>
-  </si>
-  <si>
     <t>unharmful</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,26 +72,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관계영상001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>harmful</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관계영상002</t>
-  </si>
-  <si>
-    <t>관계영상003</t>
-  </si>
-  <si>
-    <t>관계영상004</t>
-  </si>
-  <si>
-    <t>관계영상005</t>
-  </si>
-  <si>
     <t>Naked</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,55 +84,308 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>노출영상001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노출영상002</t>
-  </si>
-  <si>
-    <t>노출영상003</t>
-  </si>
-  <si>
-    <t>노출영상004</t>
-  </si>
-  <si>
-    <t>노출영상005</t>
-  </si>
-  <si>
-    <t>폭력영상001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭력영상002</t>
-  </si>
-  <si>
-    <t>폭력영상003</t>
-  </si>
-  <si>
-    <t>폭력영상004</t>
-  </si>
-  <si>
-    <t>폭력영상005</t>
-  </si>
-  <si>
-    <t>폭력영상006</t>
-  </si>
-  <si>
-    <t>폭력영상007</t>
-  </si>
-  <si>
-    <t>폭력영상008</t>
-  </si>
-  <si>
-    <t>폭력영상009</t>
-  </si>
-  <si>
-    <t>폭력영상010</t>
-  </si>
-  <si>
     <t>Violence</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sexual001</t>
+  </si>
+  <si>
+    <t>Sexual002</t>
+  </si>
+  <si>
+    <t>Sexual003</t>
+  </si>
+  <si>
+    <t>Sexual004</t>
+  </si>
+  <si>
+    <t>Sexual005</t>
+  </si>
+  <si>
+    <t>Naked001</t>
+  </si>
+  <si>
+    <t>Naked002</t>
+  </si>
+  <si>
+    <t>Naked003</t>
+  </si>
+  <si>
+    <t>Naked004</t>
+  </si>
+  <si>
+    <t>Naked005</t>
+  </si>
+  <si>
+    <t>Violence001</t>
+  </si>
+  <si>
+    <t>Violence002</t>
+  </si>
+  <si>
+    <t>Violence003</t>
+  </si>
+  <si>
+    <t>Violence004</t>
+  </si>
+  <si>
+    <t>Violence005</t>
+  </si>
+  <si>
+    <t>Violence006</t>
+  </si>
+  <si>
+    <t>Violence007</t>
+  </si>
+  <si>
+    <t>Violence008</t>
+  </si>
+  <si>
+    <t>Violence009</t>
+  </si>
+  <si>
+    <t>Violence010</t>
+  </si>
+  <si>
+    <t>Normal001</t>
+  </si>
+  <si>
+    <t>Normal002</t>
+  </si>
+  <si>
+    <t>Normal003</t>
+  </si>
+  <si>
+    <t>Normal004</t>
+  </si>
+  <si>
+    <t>Normal005</t>
+  </si>
+  <si>
+    <t>Normal006</t>
+  </si>
+  <si>
+    <t>Normal007</t>
+  </si>
+  <si>
+    <t>Normal008</t>
+  </si>
+  <si>
+    <t>Normal009</t>
+  </si>
+  <si>
+    <t>Normal010</t>
+  </si>
+  <si>
+    <t>Normal011</t>
+  </si>
+  <si>
+    <t>Normal012</t>
+  </si>
+  <si>
+    <t>Normal013</t>
+  </si>
+  <si>
+    <t>Normal014</t>
+  </si>
+  <si>
+    <t>Normal015</t>
+  </si>
+  <si>
+    <t>Normal016</t>
+  </si>
+  <si>
+    <t>Normal017</t>
+  </si>
+  <si>
+    <t>Normal018</t>
+  </si>
+  <si>
+    <t>Normal019</t>
+  </si>
+  <si>
+    <t>Normal020</t>
+  </si>
+  <si>
+    <t>Normal021</t>
+  </si>
+  <si>
+    <t>Normal022</t>
+  </si>
+  <si>
+    <t>Normal023</t>
+  </si>
+  <si>
+    <t>Normal024</t>
+  </si>
+  <si>
+    <t>Normal025</t>
+  </si>
+  <si>
+    <t>Normal026</t>
+  </si>
+  <si>
+    <t>Normal027</t>
+  </si>
+  <si>
+    <t>Normal028</t>
+  </si>
+  <si>
+    <t>Normal029</t>
+  </si>
+  <si>
+    <t>Normal030</t>
+  </si>
+  <si>
+    <t>Normal031</t>
+  </si>
+  <si>
+    <t>Normal032</t>
+  </si>
+  <si>
+    <t>Normal033</t>
+  </si>
+  <si>
+    <t>Normal034</t>
+  </si>
+  <si>
+    <t>Normal035</t>
+  </si>
+  <si>
+    <t>Normal036</t>
+  </si>
+  <si>
+    <t>Normal037</t>
+  </si>
+  <si>
+    <t>Normal038</t>
+  </si>
+  <si>
+    <t>Normal039</t>
+  </si>
+  <si>
+    <t>Normal040</t>
+  </si>
+  <si>
+    <t>Normal041</t>
+  </si>
+  <si>
+    <t>Normal042</t>
+  </si>
+  <si>
+    <t>Normal043</t>
+  </si>
+  <si>
+    <t>Normal044</t>
+  </si>
+  <si>
+    <t>Normal045</t>
+  </si>
+  <si>
+    <t>Normal046</t>
+  </si>
+  <si>
+    <t>Normal047</t>
+  </si>
+  <si>
+    <t>Normal048</t>
+  </si>
+  <si>
+    <t>Normal049</t>
+  </si>
+  <si>
+    <t>Normal050</t>
+  </si>
+  <si>
+    <t>Normal051</t>
+  </si>
+  <si>
+    <t>Normal052</t>
+  </si>
+  <si>
+    <t>Normal053</t>
+  </si>
+  <si>
+    <t>Normal054</t>
+  </si>
+  <si>
+    <t>Normal055</t>
+  </si>
+  <si>
+    <t>Normal056</t>
+  </si>
+  <si>
+    <t>Normal057</t>
+  </si>
+  <si>
+    <t>Normal058</t>
+  </si>
+  <si>
+    <t>Normal059</t>
+  </si>
+  <si>
+    <t>Normal060</t>
+  </si>
+  <si>
+    <t>Normal061</t>
+  </si>
+  <si>
+    <t>Normal062</t>
+  </si>
+  <si>
+    <t>Normal063</t>
+  </si>
+  <si>
+    <t>Normal064</t>
+  </si>
+  <si>
+    <t>Normal065</t>
+  </si>
+  <si>
+    <t>Normal066</t>
+  </si>
+  <si>
+    <t>Normal067</t>
+  </si>
+  <si>
+    <t>Normal068</t>
+  </si>
+  <si>
+    <t>Normal069</t>
+  </si>
+  <si>
+    <t>Normal070</t>
+  </si>
+  <si>
+    <t>Normal071</t>
+  </si>
+  <si>
+    <t>Normal072</t>
+  </si>
+  <si>
+    <t>Normal073</t>
+  </si>
+  <si>
+    <t>Normal074</t>
+  </si>
+  <si>
+    <t>Normal075</t>
+  </si>
+  <si>
+    <t>Normal076</t>
+  </si>
+  <si>
+    <t>Normal077</t>
+  </si>
+  <si>
+    <t>Normal078</t>
+  </si>
+  <si>
+    <t>Normal079</t>
+  </si>
+  <si>
+    <t>Normal080</t>
   </si>
 </sst>
 </file>
@@ -769,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F569E46-183B-5D47-827A-1040964C9E6E}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -789,1713 +785,1713 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E57" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E58" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E61" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E62" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E64" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E70" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E71" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E73" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E74" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E75" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E77" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E79" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E81" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E87" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E88" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E89" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E90" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E91" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
